--- a/changesSchedule.xlsx
+++ b/changesSchedule.xlsx
@@ -11,15 +11,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
-  <si>
-    <t>12 ноября
- (среда)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+  <si>
+    <t>14 ноября
+ (пятница)</t>
   </si>
   <si>
     <t>Группы</t>
   </si>
   <si>
+    <t>1-МР2</t>
+  </si>
+  <si>
+    <t>ОТМЕНА</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Иност. язык
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Васильева В.В., Староверова Г.Б.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>2/8 ауд.</t>
+    </r>
+  </si>
+  <si>
+    <t>1-МР3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Физика
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Козлов А.Н.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>401 ауд.</t>
+    </r>
+  </si>
+  <si>
+    <t>1-ИС4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">ОБЗР
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Воротников А.Н.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>ч/з</t>
+    </r>
+  </si>
+  <si>
     <t>1-ЮС</t>
   </si>
   <si>
@@ -29,26 +128,26 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Экономика организации
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Трубленкова Т.С.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>407 ауд.</t>
+      <t xml:space="preserve">БЖ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Романов М.А.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>4 ауд.</t>
     </r>
   </si>
   <si>
@@ -61,49 +160,177 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">ПО
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Канаева Л.Ю.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>308 ауд.</t>
-    </r>
-  </si>
-  <si>
-    <t>2-ИС1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">ОСиС
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Носова А.А.
+      <t xml:space="preserve">Математика в ПД
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Пасечник М.М.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>20 ауд.</t>
+    </r>
+  </si>
+  <si>
+    <t>2-МР2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Электротехника
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Каганюк А.К.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>17 ауд.</t>
+    </r>
+  </si>
+  <si>
+    <t>2-МР3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">ОВТ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Тулинова Ю.Л.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>1 ауд.</t>
+    </r>
+  </si>
+  <si>
+    <t>2-Ю2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">История России
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Першова Р.Н.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>207 ауд.</t>
+    </r>
+  </si>
+  <si>
+    <t>3-МР2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">МДК 01.01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Каганюк А.К.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>18 ауд.</t>
+    </r>
+  </si>
+  <si>
+    <t>3-ИС3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">МДК 01.03
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Авдоян Д.Т.
 </t>
     </r>
     <r>
@@ -122,30 +349,71 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">ОПБД
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Бобков Д.И.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>ч/з</t>
-    </r>
-  </si>
-  <si>
-    <t>2-ИС2</t>
+      <t xml:space="preserve">Иност. язык
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">(1 подгруппа)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Анохина С.О.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>9 ауд.</t>
+    </r>
+  </si>
+  <si>
+    <t>3-ИС4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">МДК 01.02
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Ишкова Л.Г.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>305 ауд.</t>
+    </r>
+  </si>
+  <si>
+    <t>3-ПСО1</t>
   </si>
   <si>
     <r>
@@ -164,7 +432,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Видьманов А.А.
+      <t xml:space="preserve">Протасов М.В.
 </t>
     </r>
     <r>
@@ -177,100 +445,39 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">ПО
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Канаева Л.Ю.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>308 ауд.</t>
-    </r>
-  </si>
-  <si>
-    <t>2-ИС3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">ПОПД
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Киселева Е.А.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>201 ауд.</t>
-    </r>
-  </si>
-  <si>
-    <t>2-ИС4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">ОСиС
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Носова А.А.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>ч/з</t>
-    </r>
-  </si>
-  <si>
-    <t>2-Э</t>
+    <t>3-ПСО2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Гражданское право
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Воронцова С.В.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>19 ауд.</t>
+    </r>
+  </si>
+  <si>
+    <t>3-ПСО3</t>
   </si>
   <si>
     <r>
@@ -289,64 +496,87 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Бурова И.Н.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>101 ауд.</t>
-    </r>
-  </si>
-  <si>
-    <t>2-БД</t>
-  </si>
-  <si>
-    <t>ОТМЕНА</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">ОБД
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Бурова И.Н.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>210 ауд.</t>
-    </r>
-  </si>
-  <si>
-    <t>3-СП</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">МДК 02.01
+      <t xml:space="preserve">Бабаева В.А.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>21 ауд.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Гражданский процесс
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Воронцова С.В.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>19 ауд.</t>
+    </r>
+  </si>
+  <si>
+    <t>4-СП</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Физическая культура
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Крупенина О.С.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>с/з</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">МДК 01.04
 </t>
     </r>
     <r>
@@ -365,158 +595,129 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>ч/з</t>
-    </r>
-  </si>
-  <si>
-    <t>3-ИС3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">МДК 04.02
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Шведко Я.В.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>307 ауд.</t>
-    </r>
-  </si>
-  <si>
-    <t>4-СП</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">БЖ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Голубева Н.В.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>5 ауд.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">ПОПД
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Киселева Е.А.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>101 ауд.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Охрана труда
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Голубева Н.В.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>5 ауд.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Физическая культура
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Крупенина О.С.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>с/з</t>
+      <t>209 ауд.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">МДК 02.02
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Моисеева Т.В.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>10 ауд.</t>
+    </r>
+  </si>
+  <si>
+    <t>4-ИС1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">МДК 01.01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Ишкова Л.Г.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>305 ауд.</t>
+    </r>
+  </si>
+  <si>
+    <t>4-ИС3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Менеджмент в ПД
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Рубан Е.А.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>302 ауд.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">МДК 01.03
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Авдоян Д.Т.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>306 ауд.</t>
     </r>
   </si>
   <si>
@@ -902,35 +1103,35 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" ht="59.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" ht="59.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
@@ -939,11 +1140,9 @@
         <v>9</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -951,25 +1150,25 @@
     </row>
     <row r="7" ht="59.25" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" ht="59.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -977,86 +1176,164 @@
     </row>
     <row r="9" ht="59.25" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" ht="59.25" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" ht="59.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" ht="59.25" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" ht="59.25" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" ht="59.25" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" ht="59.25" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="D14" s="7" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" ht="59.25" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>30</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" ht="59.25" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" ht="59.25" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" ht="59.25" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
